--- a/Test Data Driven/AI-Generated/TC6-Refresh Script Repository and Verify Project.xlsx
+++ b/Test Data Driven/AI-Generated/TC6-Refresh Script Repository and Verify Project.xlsx
@@ -449,16 +449,16 @@
     <col width="81" customWidth="1" min="1" max="1"/>
     <col width="34" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="39" customWidth="1" min="4" max="4"/>
-    <col width="41" customWidth="1" min="5" max="5"/>
-    <col width="29" customWidth="1" min="6" max="6"/>
-    <col width="31" customWidth="1" min="7" max="7"/>
-    <col width="26" customWidth="1" min="8" max="8"/>
-    <col width="28" customWidth="1" min="9" max="9"/>
-    <col width="34" customWidth="1" min="10" max="10"/>
-    <col width="36" customWidth="1" min="11" max="11"/>
-    <col width="29" customWidth="1" min="12" max="12"/>
-    <col width="31" customWidth="1" min="13" max="13"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="22" customWidth="1" min="8" max="8"/>
+    <col width="24" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="32" customWidth="1" min="11" max="11"/>
+    <col width="25" customWidth="1" min="12" max="12"/>
+    <col width="27" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -479,52 +479,52 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>link_testProject_internalRoleLinkName</t>
+          <t>link_project_internalRoleLinkName</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>link_testProject_internalRoleLinkName_1</t>
+          <t>link_project_internalRoleLinkName_1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>link_testProject_project_id</t>
+          <t>link_project_project_id</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>link_testProject_project_id_1</t>
+          <t>link_project_project_id_1</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>link_testProject_team_id</t>
+          <t>link_project_team_id</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>link_testProject_team_id_1</t>
+          <t>link_project_team_id_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>link_testProject_test_project_id</t>
+          <t>link_project_test_project_id</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>link_testProject_test_project_id_1</t>
+          <t>link_project_test_project_id_1</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>link_testProject_trNthChild</t>
+          <t>link_project_trNthChild</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>link_testProject_trNthChild_1</t>
+          <t>link_project_trNthChild_1</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TC6-Refresh Script Repository and Verify Project.xlsx
+++ b/Test Data Driven/AI-Generated/TC6-Refresh Script Repository and Verify Project.xlsx
@@ -446,8 +446,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="71" customWidth="1" min="1" max="1"/>
-    <col width="41" customWidth="1" min="2" max="2"/>
+    <col width="83" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
     <col width="40" customWidth="1" min="4" max="4"/>
     <col width="42" customWidth="1" min="5" max="5"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>div_testRunDetails_internalRoleCellName</t>
+          <t>div_testRuns_internalRoleCellName</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/scheduleAndRunTestsOnDevices-test-data</t>
+          <t>Data Files/AI-Generated/Common/scheduleTestRunWithEnvironmentAndDevices-test-data</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/Test Data Driven/AI-Generated/TC6-Refresh Script Repository and Verify Project.xlsx
+++ b/Test Data Driven/AI-Generated/TC6-Refresh Script Repository and Verify Project.xlsx
@@ -446,19 +446,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="83" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="66" customWidth="1" min="1" max="1"/>
+    <col width="41" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="40" customWidth="1" min="4" max="4"/>
-    <col width="42" customWidth="1" min="5" max="5"/>
-    <col width="30" customWidth="1" min="6" max="6"/>
-    <col width="32" customWidth="1" min="7" max="7"/>
-    <col width="27" customWidth="1" min="8" max="8"/>
-    <col width="29" customWidth="1" min="9" max="9"/>
-    <col width="35" customWidth="1" min="10" max="10"/>
-    <col width="37" customWidth="1" min="11" max="11"/>
-    <col width="30" customWidth="1" min="12" max="12"/>
-    <col width="32" customWidth="1" min="13" max="13"/>
+    <col width="49" customWidth="1" min="4" max="4"/>
+    <col width="51" customWidth="1" min="5" max="5"/>
+    <col width="39" customWidth="1" min="6" max="6"/>
+    <col width="41" customWidth="1" min="7" max="7"/>
+    <col width="36" customWidth="1" min="8" max="8"/>
+    <col width="38" customWidth="1" min="9" max="9"/>
+    <col width="44" customWidth="1" min="10" max="10"/>
+    <col width="46" customWidth="1" min="11" max="11"/>
+    <col width="39" customWidth="1" min="12" max="12"/>
+    <col width="41" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -469,7 +469,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName</t>
+          <t>div_testRunDetails_internalRoleCellName</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -479,59 +479,59 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_internalRoleLinkName</t>
+          <t>link_testProjectNavigation_internalRoleLinkName</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_internalRoleLinkName_1</t>
+          <t>link_testProjectNavigation_internalRoleLinkName_1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_project_id</t>
+          <t>link_testProjectNavigation_project_id</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_project_id_1</t>
+          <t>link_testProjectNavigation_project_id_1</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_team_id</t>
+          <t>link_testProjectNavigation_team_id</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_team_id_1</t>
+          <t>link_testProjectNavigation_team_id_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_test_project_id</t>
+          <t>link_testProjectNavigation_test_project_id</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_test_project_id_1</t>
+          <t>link_testProjectNavigation_test_project_id_1</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_trNthChild</t>
+          <t>link_testProjectNavigation_trNthChild</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_trNthChild_1</t>
+          <t>link_testProjectNavigation_trNthChild_1</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/scheduleTestRunWithEnvironmentAndDevices-test-data</t>
+          <t>Data Files/AI-Generated/Common/scheduleAndRunTestSuite-test-data</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/Test Data Driven/AI-Generated/TC6-Refresh Script Repository and Verify Project.xlsx
+++ b/Test Data Driven/AI-Generated/TC6-Refresh Script Repository and Verify Project.xlsx
@@ -446,19 +446,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="81" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="66" customWidth="1" min="1" max="1"/>
+    <col width="44" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="40" customWidth="1" min="4" max="4"/>
-    <col width="42" customWidth="1" min="5" max="5"/>
-    <col width="30" customWidth="1" min="6" max="6"/>
-    <col width="32" customWidth="1" min="7" max="7"/>
-    <col width="27" customWidth="1" min="8" max="8"/>
-    <col width="29" customWidth="1" min="9" max="9"/>
-    <col width="35" customWidth="1" min="10" max="10"/>
-    <col width="37" customWidth="1" min="11" max="11"/>
-    <col width="30" customWidth="1" min="12" max="12"/>
-    <col width="32" customWidth="1" min="13" max="13"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
+    <col width="47" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="7" max="7"/>
+    <col width="32" customWidth="1" min="8" max="8"/>
+    <col width="34" customWidth="1" min="9" max="9"/>
+    <col width="40" customWidth="1" min="10" max="10"/>
+    <col width="42" customWidth="1" min="11" max="11"/>
+    <col width="35" customWidth="1" min="12" max="12"/>
+    <col width="37" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -469,7 +469,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName</t>
+          <t>div_testRunComponents_internalRoleCellName</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -479,59 +479,59 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_internalRoleLinkName</t>
+          <t>link_projectNavigation_internalRoleLinkName</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_internalRoleLinkName_1</t>
+          <t>link_projectNavigation_internalRoleLinkName_1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_project_id</t>
+          <t>link_projectNavigation_project_id</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_project_id_1</t>
+          <t>link_projectNavigation_project_id_1</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_team_id</t>
+          <t>link_projectNavigation_team_id</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_team_id_1</t>
+          <t>link_projectNavigation_team_id_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_test_project_id</t>
+          <t>link_projectNavigation_test_project_id</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_test_project_id_1</t>
+          <t>link_projectNavigation_test_project_id_1</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_trNthChild</t>
+          <t>link_projectNavigation_trNthChild</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_trNthChild_1</t>
+          <t>link_projectNavigation_trNthChild_1</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/scheduleTestRunAndConfigureEnvironment-test-data</t>
+          <t>Data Files/AI-Generated/Common/scheduleAndRunTestSuite-test-data</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/Test Data Driven/AI-Generated/TC6-Refresh Script Repository and Verify Project.xlsx
+++ b/Test Data Driven/AI-Generated/TC6-Refresh Script Repository and Verify Project.xlsx
@@ -446,19 +446,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="66" customWidth="1" min="1" max="1"/>
-    <col width="44" customWidth="1" min="2" max="2"/>
+    <col width="81" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="47" customWidth="1" min="5" max="5"/>
-    <col width="35" customWidth="1" min="6" max="6"/>
-    <col width="37" customWidth="1" min="7" max="7"/>
-    <col width="32" customWidth="1" min="8" max="8"/>
-    <col width="34" customWidth="1" min="9" max="9"/>
-    <col width="40" customWidth="1" min="10" max="10"/>
-    <col width="42" customWidth="1" min="11" max="11"/>
-    <col width="35" customWidth="1" min="12" max="12"/>
-    <col width="37" customWidth="1" min="13" max="13"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
+    <col width="42" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="32" customWidth="1" min="7" max="7"/>
+    <col width="27" customWidth="1" min="8" max="8"/>
+    <col width="29" customWidth="1" min="9" max="9"/>
+    <col width="35" customWidth="1" min="10" max="10"/>
+    <col width="37" customWidth="1" min="11" max="11"/>
+    <col width="30" customWidth="1" min="12" max="12"/>
+    <col width="32" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -469,7 +469,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>div_testRunComponents_internalRoleCellName</t>
+          <t>div_testRuns_internalRoleCellName</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -479,59 +479,59 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>link_projectNavigation_internalRoleLinkName</t>
+          <t>link_projectLinks_internalRoleLinkName</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>link_projectNavigation_internalRoleLinkName_1</t>
+          <t>link_projectLinks_internalRoleLinkName_1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>link_projectNavigation_project_id</t>
+          <t>link_projectLinks_project_id</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>link_projectNavigation_project_id_1</t>
+          <t>link_projectLinks_project_id_1</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>link_projectNavigation_team_id</t>
+          <t>link_projectLinks_team_id</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>link_projectNavigation_team_id_1</t>
+          <t>link_projectLinks_team_id_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>link_projectNavigation_test_project_id</t>
+          <t>link_projectLinks_test_project_id</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>link_projectNavigation_test_project_id_1</t>
+          <t>link_projectLinks_test_project_id_1</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>link_projectNavigation_trNthChild</t>
+          <t>link_projectLinks_trNthChild</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>link_projectNavigation_trNthChild_1</t>
+          <t>link_projectLinks_trNthChild_1</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/scheduleAndRunTestSuite-test-data</t>
+          <t>Data Files/AI-Generated/Common/scheduleTestRunAndConfigureEnvironment-test-data</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/Test Data Driven/AI-Generated/TC6-Refresh Script Repository and Verify Project.xlsx
+++ b/Test Data Driven/AI-Generated/TC6-Refresh Script Repository and Verify Project.xlsx
@@ -446,8 +446,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="81" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="66" customWidth="1" min="1" max="1"/>
+    <col width="41" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
     <col width="40" customWidth="1" min="4" max="4"/>
     <col width="42" customWidth="1" min="5" max="5"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName</t>
+          <t>div_testRunDetails_internalRoleCellName</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/scheduleTestRunAndConfigureEnvironment-test-data</t>
+          <t>Data Files/AI-Generated/Common/scheduleAndRunTestSuite-test-data</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/Test Data Driven/AI-Generated/TC6-Refresh Script Repository and Verify Project.xlsx
+++ b/Test Data Driven/AI-Generated/TC6-Refresh Script Repository and Verify Project.xlsx
@@ -446,19 +446,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="66" customWidth="1" min="1" max="1"/>
-    <col width="41" customWidth="1" min="2" max="2"/>
+    <col width="79" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="40" customWidth="1" min="4" max="4"/>
-    <col width="42" customWidth="1" min="5" max="5"/>
-    <col width="30" customWidth="1" min="6" max="6"/>
-    <col width="32" customWidth="1" min="7" max="7"/>
-    <col width="27" customWidth="1" min="8" max="8"/>
-    <col width="29" customWidth="1" min="9" max="9"/>
-    <col width="35" customWidth="1" min="10" max="10"/>
-    <col width="37" customWidth="1" min="11" max="11"/>
-    <col width="30" customWidth="1" min="12" max="12"/>
-    <col width="32" customWidth="1" min="13" max="13"/>
+    <col width="39" customWidth="1" min="4" max="4"/>
+    <col width="41" customWidth="1" min="5" max="5"/>
+    <col width="29" customWidth="1" min="6" max="6"/>
+    <col width="31" customWidth="1" min="7" max="7"/>
+    <col width="26" customWidth="1" min="8" max="8"/>
+    <col width="28" customWidth="1" min="9" max="9"/>
+    <col width="34" customWidth="1" min="10" max="10"/>
+    <col width="36" customWidth="1" min="11" max="11"/>
+    <col width="29" customWidth="1" min="12" max="12"/>
+    <col width="31" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -469,7 +469,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>div_testRunDetails_internalRoleCellName</t>
+          <t>div_testRuns_internalRoleCellName</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -479,59 +479,59 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_internalRoleLinkName</t>
+          <t>link_testProject_internalRoleLinkName</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_internalRoleLinkName_1</t>
+          <t>link_testProject_internalRoleLinkName_1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_project_id</t>
+          <t>link_testProject_project_id</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_project_id_1</t>
+          <t>link_testProject_project_id_1</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_team_id</t>
+          <t>link_testProject_team_id</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_team_id_1</t>
+          <t>link_testProject_team_id_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_test_project_id</t>
+          <t>link_testProject_test_project_id</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_test_project_id_1</t>
+          <t>link_testProject_test_project_id_1</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_trNthChild</t>
+          <t>link_testProject_trNthChild</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>link_projectLinks_trNthChild_1</t>
+          <t>link_testProject_trNthChild_1</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/scheduleAndRunTestSuite-test-data</t>
+          <t>Data Files/AI-Generated/Common/scheduleAndRunTestWithConfigurations-test-data</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/Test Data Driven/AI-Generated/TC6-Refresh Script Repository and Verify Project.xlsx
+++ b/Test Data Driven/AI-Generated/TC6-Refresh Script Repository and Verify Project.xlsx
@@ -446,19 +446,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="79" customWidth="1" min="1" max="1"/>
+    <col width="81" customWidth="1" min="1" max="1"/>
     <col width="35" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="39" customWidth="1" min="4" max="4"/>
-    <col width="41" customWidth="1" min="5" max="5"/>
-    <col width="29" customWidth="1" min="6" max="6"/>
-    <col width="31" customWidth="1" min="7" max="7"/>
-    <col width="26" customWidth="1" min="8" max="8"/>
-    <col width="28" customWidth="1" min="9" max="9"/>
-    <col width="34" customWidth="1" min="10" max="10"/>
-    <col width="36" customWidth="1" min="11" max="11"/>
-    <col width="29" customWidth="1" min="12" max="12"/>
-    <col width="31" customWidth="1" min="13" max="13"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="22" customWidth="1" min="8" max="8"/>
+    <col width="24" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="32" customWidth="1" min="11" max="11"/>
+    <col width="25" customWidth="1" min="12" max="12"/>
+    <col width="27" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -479,59 +479,59 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>link_testProject_internalRoleLinkName</t>
+          <t>link_project_internalRoleLinkName</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>link_testProject_internalRoleLinkName_1</t>
+          <t>link_project_internalRoleLinkName_1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>link_testProject_project_id</t>
+          <t>link_project_project_id</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>link_testProject_project_id_1</t>
+          <t>link_project_project_id_1</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>link_testProject_team_id</t>
+          <t>link_project_team_id</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>link_testProject_team_id_1</t>
+          <t>link_project_team_id_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>link_testProject_test_project_id</t>
+          <t>link_project_test_project_id</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>link_testProject_test_project_id_1</t>
+          <t>link_project_test_project_id_1</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>link_testProject_trNthChild</t>
+          <t>link_project_trNthChild</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>link_testProject_trNthChild_1</t>
+          <t>link_project_trNthChild_1</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/scheduleAndRunTestWithConfigurations-test-data</t>
+          <t>Data Files/AI-Generated/Common/scheduleTestRunAndConfigureEnvironment-test-data</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
